--- a/Таблица жестскостей для замены.xlsx
+++ b/Таблица жестскостей для замены.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.zurabyan\PycharmProjects\Finder_Text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B5DDA3-AA25-4298-8984-072A44CEE7C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2F6FF1-B951-4A14-87BA-AAD3FF4CBE27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{BE9DFA83-A1E4-46A5-B000-C26635B89FBD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6534" uniqueCount="1203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6619" uniqueCount="1204">
   <si>
     <t>#4217f8</t>
   </si>
@@ -3642,6 +3642,9 @@
   </si>
   <si>
     <t>РЎРІР°Рё (Harding_soil)</t>
+  </si>
+  <si>
+    <t>Сваи MC</t>
   </si>
 </sst>
 </file>
@@ -57949,8 +57952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740AFA9C-8B0F-4C09-B73C-35E64B77C6EE}">
   <dimension ref="A1:AS85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="J16" workbookViewId="0">
+      <selection activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57965,6 +57968,7 @@
     <col min="22" max="22" width="11.5703125" customWidth="1"/>
     <col min="23" max="23" width="11.42578125" customWidth="1"/>
     <col min="26" max="26" width="16.42578125" customWidth="1"/>
+    <col min="28" max="28" width="32.5703125" customWidth="1"/>
     <col min="29" max="29" width="56" customWidth="1"/>
     <col min="30" max="30" width="43.7109375" customWidth="1"/>
     <col min="31" max="31" width="31.7109375" customWidth="1"/>
@@ -58055,12 +58059,15 @@
         <v>683</v>
       </c>
       <c r="AC1" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD1" t="s">
         <v>686</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>1201</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>1198</v>
       </c>
     </row>
@@ -58093,7 +58100,7 @@
         <v>346760</v>
       </c>
       <c r="L2">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="N2">
         <v>7459</v>
@@ -58138,12 +58145,15 @@
         <v>339</v>
       </c>
       <c r="AC2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD2" t="s">
         <v>340</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>9.2820040939398836E-3</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>9.2820040939398836E-3</v>
       </c>
       <c r="AS2" s="3"/>
@@ -58177,7 +58187,7 @@
         <v>346761</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="N3">
         <v>7460</v>
@@ -58222,12 +58232,15 @@
         <v>341</v>
       </c>
       <c r="AC3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD3" t="s">
         <v>342</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>7.4032560404161231E-3</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>7.4032560404161231E-3</v>
       </c>
       <c r="AS3" s="3"/>
@@ -58261,7 +58274,7 @@
         <v>346762</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="N4">
         <v>7461</v>
@@ -58306,12 +58319,15 @@
         <v>343</v>
       </c>
       <c r="AC4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD4" t="s">
         <v>344</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>5.6265886645512804E-3</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>5.6265886645512804E-3</v>
       </c>
       <c r="AS4" s="3"/>
@@ -58345,7 +58361,7 @@
         <v>346763</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="N5">
         <v>7462</v>
@@ -58390,12 +58406,15 @@
         <v>345</v>
       </c>
       <c r="AC5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD5" t="s">
         <v>346</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>3.8733060813752685E-3</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>3.8733060813752685E-3</v>
       </c>
       <c r="AS5" s="3"/>
@@ -58429,7 +58448,7 @@
         <v>346811</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="N6">
         <v>247505</v>
@@ -58474,12 +58493,15 @@
         <v>347</v>
       </c>
       <c r="AC6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD6" t="s">
         <v>348</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>2.1162466774859901E-3</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>2.1162466774859901E-3</v>
       </c>
       <c r="AS6" s="3"/>
@@ -58513,7 +58535,7 @@
         <v>346812</v>
       </c>
       <c r="L7">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="N7">
         <v>247506</v>
@@ -58558,12 +58580,15 @@
         <v>349</v>
       </c>
       <c r="AC7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD7" t="s">
         <v>350</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>9.21195961779692E-3</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>9.21195961779692E-3</v>
       </c>
       <c r="AS7" s="3"/>
@@ -58597,7 +58622,7 @@
         <v>346813</v>
       </c>
       <c r="L8">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="N8">
         <v>247507</v>
@@ -58642,12 +58667,15 @@
         <v>353</v>
       </c>
       <c r="AC8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD8" t="s">
         <v>354</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>7.4500067114121066E-3</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>7.4500067114121066E-3</v>
       </c>
       <c r="AS8" s="3"/>
@@ -58681,7 +58709,7 @@
         <v>346814</v>
       </c>
       <c r="L9">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="N9">
         <v>247508</v>
@@ -58726,12 +58754,15 @@
         <v>355</v>
       </c>
       <c r="AC9" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD9" t="s">
         <v>356</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>5.5843352334915023E-3</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>5.5843352334915023E-3</v>
       </c>
       <c r="AS9" s="3"/>
@@ -58765,7 +58796,7 @@
         <v>346815</v>
       </c>
       <c r="L10">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="N10">
         <v>247509</v>
@@ -58810,12 +58841,15 @@
         <v>357</v>
       </c>
       <c r="AC10" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD10" t="s">
         <v>358</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>0.14955013674349654</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>0.14955013674349654</v>
       </c>
       <c r="AS10" s="3"/>
@@ -58849,7 +58883,7 @@
         <v>346816</v>
       </c>
       <c r="L11">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="N11">
         <v>247510</v>
@@ -58894,12 +58928,15 @@
         <v>359</v>
       </c>
       <c r="AC11" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD11" t="s">
         <v>360</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>1.8836666371625549E-3</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>1.8836666371625549E-3</v>
       </c>
       <c r="AS11" s="3"/>
@@ -58933,7 +58970,7 @@
         <v>346817</v>
       </c>
       <c r="L12">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="N12">
         <v>247511</v>
@@ -58978,12 +59015,15 @@
         <v>361</v>
       </c>
       <c r="AC12" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD12" t="s">
         <v>362</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>3.3902507281887337E-3</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>3.3902507281887337E-3</v>
       </c>
       <c r="AS12" s="3"/>
@@ -59017,7 +59057,7 @@
         <v>346818</v>
       </c>
       <c r="L13">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="N13">
         <v>247512</v>
@@ -59062,12 +59102,15 @@
         <v>363</v>
       </c>
       <c r="AC13" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD13" t="s">
         <v>364</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>9.6959888613861265E-3</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>9.6959888613861265E-3</v>
       </c>
       <c r="AS13" s="3"/>
@@ -59101,7 +59144,7 @@
         <v>346819</v>
       </c>
       <c r="L14">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="N14">
         <v>247513</v>
@@ -59146,12 +59189,15 @@
         <v>365</v>
       </c>
       <c r="AC14" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD14" t="s">
         <v>366</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>7.9164701730003069E-3</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>7.9164701730003069E-3</v>
       </c>
       <c r="AS14" s="3"/>
@@ -59185,7 +59231,7 @@
         <v>346820</v>
       </c>
       <c r="L15">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="N15">
         <v>247514</v>
@@ -59230,12 +59276,15 @@
         <v>367</v>
       </c>
       <c r="AC15" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD15" t="s">
         <v>368</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>6.3045142556828662E-3</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>6.3045142556828662E-3</v>
       </c>
       <c r="AS15" s="3"/>
@@ -59269,7 +59318,7 @@
         <v>346821</v>
       </c>
       <c r="L16">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="N16">
         <v>247515</v>
@@ -59314,12 +59363,15 @@
         <v>369</v>
       </c>
       <c r="AC16" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD16" t="s">
         <v>370</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>2.2600221237923435E-3</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>2.2600221237923435E-3</v>
       </c>
       <c r="AS16" s="3"/>
@@ -59353,7 +59405,7 @@
         <v>346822</v>
       </c>
       <c r="L17">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="N17">
         <v>247516</v>
@@ -59398,12 +59450,15 @@
         <v>371</v>
       </c>
       <c r="AC17" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD17" t="s">
         <v>372</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>3.164569480995188E-3</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>3.164569480995188E-3</v>
       </c>
       <c r="AS17" s="3"/>
@@ -59437,7 +59492,7 @@
         <v>346823</v>
       </c>
       <c r="L18">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="N18">
         <v>247517</v>
@@ -59482,12 +59537,15 @@
         <v>373</v>
       </c>
       <c r="AC18" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD18" t="s">
         <v>374</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>5.2410685933372975E-3</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>5.2410685933372975E-3</v>
       </c>
       <c r="AS18" s="3"/>
@@ -59521,7 +59579,7 @@
         <v>346824</v>
       </c>
       <c r="L19">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="N19">
         <v>247518</v>
@@ -59566,12 +59624,15 @@
         <v>375</v>
       </c>
       <c r="AC19" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD19" t="s">
         <v>376</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>9.6518236618815794E-3</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>9.6518236618815794E-3</v>
       </c>
       <c r="AS19" s="3"/>
@@ -59605,7 +59666,7 @@
         <v>346825</v>
       </c>
       <c r="L20">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="N20">
         <v>247519</v>
@@ -59650,12 +59711,15 @@
         <v>377</v>
       </c>
       <c r="AC20" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD20" t="s">
         <v>378</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>1.0603890795359413E-2</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>1.0603890795359413E-2</v>
       </c>
       <c r="AS20" s="3"/>
@@ -59689,7 +59753,7 @@
         <v>346826</v>
       </c>
       <c r="L21">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="N21">
         <v>247520</v>
@@ -59734,12 +59798,15 @@
         <v>379</v>
       </c>
       <c r="AC21" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD21" t="s">
         <v>380</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>9.0202993298418108E-3</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>9.0202993298418108E-3</v>
       </c>
       <c r="AS21" s="3"/>
@@ -59773,7 +59840,7 @@
         <v>346827</v>
       </c>
       <c r="L22">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="N22">
         <v>247521</v>
@@ -59818,12 +59885,15 @@
         <v>381</v>
       </c>
       <c r="AC22" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD22" t="s">
         <v>382</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>7.3055047738003268E-3</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>7.3055047738003268E-3</v>
       </c>
       <c r="AS22" s="3"/>
@@ -59857,7 +59927,7 @@
         <v>346828</v>
       </c>
       <c r="L23">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="N23">
         <v>247522</v>
@@ -59902,12 +59972,15 @@
         <v>383</v>
       </c>
       <c r="AC23" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD23" t="s">
         <v>384</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>4.2700117096053612E-3</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>4.2700117096053612E-3</v>
       </c>
       <c r="AS23" s="3"/>
@@ -59941,7 +60014,7 @@
         <v>346829</v>
       </c>
       <c r="L24">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="N24">
         <v>247523</v>
@@ -59986,12 +60059,15 @@
         <v>385</v>
       </c>
       <c r="AC24" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD24" t="s">
         <v>386</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>9.0309966227455317E-3</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>9.0309966227455317E-3</v>
       </c>
       <c r="AS24" s="3"/>
@@ -60025,7 +60101,7 @@
         <v>346830</v>
       </c>
       <c r="L25">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="N25">
         <v>247524</v>
@@ -60070,12 +60146,15 @@
         <v>387</v>
       </c>
       <c r="AC25" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD25" t="s">
         <v>388</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>8.0039052967893296E-3</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>8.0039052967893296E-3</v>
       </c>
       <c r="AS25" s="3"/>
@@ -60109,7 +60188,7 @@
         <v>346831</v>
       </c>
       <c r="L26">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="N26">
         <v>247525</v>
@@ -60154,12 +60233,15 @@
         <v>389</v>
       </c>
       <c r="AC26" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD26" t="s">
         <v>390</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>6.9937186102949217E-3</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>6.9937186102949217E-3</v>
       </c>
       <c r="AS26" s="3"/>
@@ -60193,7 +60275,7 @@
         <v>346832</v>
       </c>
       <c r="L27">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="N27">
         <v>247526</v>
@@ -60238,12 +60320,15 @@
         <v>391</v>
       </c>
       <c r="AC27" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD27" t="s">
         <v>392</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>6.4901926011441194E-3</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>6.4901926011441194E-3</v>
       </c>
       <c r="AS27" s="3"/>
@@ -60277,7 +60362,7 @@
         <v>346833</v>
       </c>
       <c r="L28">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="N28">
         <v>247527</v>
@@ -60322,12 +60407,15 @@
         <v>396</v>
       </c>
       <c r="AC28" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD28" t="s">
         <v>397</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>1.2689341984513949E-2</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>1.2689341984513949E-2</v>
       </c>
       <c r="AS28" s="3"/>
@@ -60361,7 +60449,7 @@
         <v>346834</v>
       </c>
       <c r="L29">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="N29">
         <v>247528</v>
@@ -60406,12 +60494,15 @@
         <v>398</v>
       </c>
       <c r="AC29" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD29" t="s">
         <v>399</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>1.1085472475272766E-2</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>1.1085472475272766E-2</v>
       </c>
       <c r="AS29" s="3"/>
@@ -60445,7 +60536,7 @@
         <v>346835</v>
       </c>
       <c r="L30">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="N30">
         <v>247529</v>
@@ -60490,12 +60581,15 @@
         <v>400</v>
       </c>
       <c r="AC30" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD30" t="s">
         <v>401</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>9.3688686616866922E-3</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>9.3688686616866922E-3</v>
       </c>
       <c r="AS30" s="3"/>
@@ -60529,7 +60623,7 @@
         <v>346836</v>
       </c>
       <c r="L31">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="N31">
         <v>247530</v>
@@ -60574,12 +60668,15 @@
         <v>406</v>
       </c>
       <c r="AC31" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD31" t="s">
         <v>407</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>8.5507485052337354E-3</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>8.5507485052337354E-3</v>
       </c>
       <c r="AS31" s="3"/>
@@ -60613,7 +60710,7 @@
         <v>346837</v>
       </c>
       <c r="L32">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="N32">
         <v>247532</v>
@@ -60658,12 +60755,15 @@
         <v>408</v>
       </c>
       <c r="AC32" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD32" t="s">
         <v>409</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>7.6975840365459533E-3</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>7.6975840365459533E-3</v>
       </c>
       <c r="AS32" s="3"/>
@@ -60697,7 +60797,7 @@
         <v>346838</v>
       </c>
       <c r="L33">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="N33">
         <v>247533</v>
@@ -60742,12 +60842,15 @@
         <v>414</v>
       </c>
       <c r="AC33" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD33" t="s">
         <v>415</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>6.7566263771253491E-3</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>6.7566263771253491E-3</v>
       </c>
       <c r="AS33" s="3"/>
@@ -60781,7 +60884,7 @@
         <v>346839</v>
       </c>
       <c r="L34">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="N34">
         <v>247534</v>
@@ -60826,12 +60929,15 @@
         <v>416</v>
       </c>
       <c r="AC34" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD34" t="s">
         <v>417</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>6.3902816839425608E-3</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>6.3902816839425608E-3</v>
       </c>
       <c r="AS34" s="3"/>
@@ -60865,7 +60971,7 @@
         <v>346840</v>
       </c>
       <c r="L35">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="N35">
         <v>247535</v>
@@ -60883,10 +60989,10 @@
         <v>83</v>
       </c>
       <c r="T35">
-        <v>348104</v>
+        <v>348020</v>
       </c>
       <c r="U35">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V35">
         <v>338170</v>
@@ -60910,12 +61016,15 @@
         <v>426</v>
       </c>
       <c r="AC35" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD35" t="s">
         <v>427</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>9.6293821193237442E-3</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>9.6293821193237442E-3</v>
       </c>
       <c r="AS35" s="3"/>
@@ -60949,7 +61058,7 @@
         <v>346841</v>
       </c>
       <c r="L36">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="N36">
         <v>247536</v>
@@ -60994,12 +61103,15 @@
         <v>428</v>
       </c>
       <c r="AC36" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD36" t="s">
         <v>429</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>9.0996373554140964E-3</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>9.0996373554140964E-3</v>
       </c>
       <c r="AS36" s="3"/>
@@ -61033,7 +61145,7 @@
         <v>346842</v>
       </c>
       <c r="L37">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="N37">
         <v>247537</v>
@@ -61078,12 +61190,15 @@
         <v>430</v>
       </c>
       <c r="AC37" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD37" t="s">
         <v>431</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>1.2561926603828853E-2</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>1.2561926603828853E-2</v>
       </c>
       <c r="AS37" s="3"/>
@@ -61117,7 +61232,7 @@
         <v>346843</v>
       </c>
       <c r="L38">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="N38">
         <v>247538</v>
@@ -61162,12 +61277,15 @@
         <v>432</v>
       </c>
       <c r="AC38" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD38" t="s">
         <v>433</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>7.5718029557212789E-3</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>7.5718029557212789E-3</v>
       </c>
       <c r="AS38" s="3"/>
@@ -61201,7 +61319,7 @@
         <v>346844</v>
       </c>
       <c r="L39">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="N39">
         <v>247539</v>
@@ -61246,12 +61364,15 @@
         <v>454</v>
       </c>
       <c r="AC39" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD39" t="s">
         <v>455</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>10.248185949054594</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>1.4275937797576552E-2</v>
       </c>
       <c r="AS39" s="3"/>
@@ -61285,7 +61406,7 @@
         <v>346845</v>
       </c>
       <c r="L40">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="N40">
         <v>247540</v>
@@ -61330,12 +61451,15 @@
         <v>456</v>
       </c>
       <c r="AC40" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD40" t="s">
         <v>457</v>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>8.8234460388108803E-3</v>
       </c>
-      <c r="AE40">
+      <c r="AF40">
         <v>8.8234460388108803E-3</v>
       </c>
       <c r="AS40" s="3"/>
@@ -61369,7 +61493,7 @@
         <v>346846</v>
       </c>
       <c r="L41">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="N41">
         <v>247541</v>
@@ -61414,12 +61538,15 @@
         <v>458</v>
       </c>
       <c r="AC41" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD41" t="s">
         <v>459</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>1.0351425022670334E-2</v>
       </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>1.0351425022670334E-2</v>
       </c>
       <c r="AS41" s="3"/>
@@ -61453,7 +61580,7 @@
         <v>346847</v>
       </c>
       <c r="L42">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="N42">
         <v>247542</v>
@@ -61498,12 +61625,15 @@
         <v>460</v>
       </c>
       <c r="AC42" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD42" t="s">
         <v>461</v>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>8.690207132170372E-3</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>8.690207132170372E-3</v>
       </c>
       <c r="AS42" s="3"/>
@@ -61537,7 +61667,7 @@
         <v>346848</v>
       </c>
       <c r="L43">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="N43">
         <v>247543</v>
@@ -61582,12 +61712,15 @@
         <v>464</v>
       </c>
       <c r="AC43" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD43" t="s">
         <v>465</v>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>1.3551372624201039E-2</v>
       </c>
-      <c r="AE43">
+      <c r="AF43">
         <v>1.3551372624201039E-2</v>
       </c>
       <c r="AS43" s="3"/>
@@ -61621,7 +61754,7 @@
         <v>346849</v>
       </c>
       <c r="L44">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="N44">
         <v>247544</v>
@@ -61666,12 +61799,15 @@
         <v>466</v>
       </c>
       <c r="AC44" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD44" t="s">
         <v>467</v>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>10.219040899076598</v>
       </c>
-      <c r="AE44">
+      <c r="AF44">
         <v>7.0648166289016878E-2</v>
       </c>
       <c r="AS44" s="3"/>
@@ -61705,7 +61841,7 @@
         <v>346850</v>
       </c>
       <c r="L45">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="N45">
         <v>247545</v>
@@ -61750,12 +61886,15 @@
         <v>468</v>
       </c>
       <c r="AC45" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD45" t="s">
         <v>469</v>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <v>4.9527084509383319E-2</v>
       </c>
-      <c r="AE45">
+      <c r="AF45">
         <v>4.9527084509383319E-2</v>
       </c>
       <c r="AS45" s="3"/>
@@ -61789,7 +61928,7 @@
         <v>346851</v>
       </c>
       <c r="L46">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="N46">
         <v>247546</v>
@@ -61834,12 +61973,15 @@
         <v>470</v>
       </c>
       <c r="AC46" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD46" t="s">
         <v>471</v>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>1.0118596740657564E-2</v>
       </c>
-      <c r="AE46">
+      <c r="AF46">
         <v>1.0118596740657564E-2</v>
       </c>
       <c r="AS46" s="3"/>
@@ -61873,7 +62015,7 @@
         <v>346852</v>
       </c>
       <c r="L47">
-        <v>56</v>
+        <v>186</v>
       </c>
       <c r="N47">
         <v>247547</v>
@@ -61918,12 +62060,15 @@
         <v>476</v>
       </c>
       <c r="AC47" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD47" t="s">
         <v>477</v>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>1.5102016421656284E-2</v>
       </c>
-      <c r="AE47">
+      <c r="AF47">
         <v>1.5102016421656284E-2</v>
       </c>
       <c r="AS47" s="3"/>
@@ -61957,7 +62102,7 @@
         <v>346853</v>
       </c>
       <c r="L48">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="N48">
         <v>247548</v>
@@ -62002,12 +62147,15 @@
         <v>496</v>
       </c>
       <c r="AC48" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD48" t="s">
         <v>497</v>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>0.13992376853129945</v>
       </c>
-      <c r="AE48">
+      <c r="AF48">
         <v>0.13992376853129945</v>
       </c>
       <c r="AS48" s="3"/>
@@ -62041,7 +62189,7 @@
         <v>346854</v>
       </c>
       <c r="L49">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="N49">
         <v>247549</v>
@@ -62086,12 +62234,15 @@
         <v>498</v>
       </c>
       <c r="AC49" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD49" t="s">
         <v>499</v>
       </c>
-      <c r="AD49">
+      <c r="AE49">
         <v>1.0790074142484295E-2</v>
       </c>
-      <c r="AE49">
+      <c r="AF49">
         <v>1.0790074142484295E-2</v>
       </c>
       <c r="AS49" s="3"/>
@@ -62125,7 +62276,7 @@
         <v>346855</v>
       </c>
       <c r="L50">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="N50">
         <v>247550</v>
@@ -62170,12 +62321,15 @@
         <v>500</v>
       </c>
       <c r="AC50" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD50" t="s">
         <v>501</v>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <v>0.1994744319455494</v>
       </c>
-      <c r="AE50">
+      <c r="AF50">
         <v>0.1994744319455494</v>
       </c>
       <c r="AS50" s="3"/>
@@ -62209,7 +62363,7 @@
         <v>346856</v>
       </c>
       <c r="L51">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="N51">
         <v>247551</v>
@@ -62254,12 +62408,15 @@
         <v>506</v>
       </c>
       <c r="AC51" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD51" t="s">
         <v>507</v>
       </c>
-      <c r="AD51">
+      <c r="AE51">
         <v>1.156885906213838E-2</v>
       </c>
-      <c r="AE51">
+      <c r="AF51">
         <v>1.156885906213838E-2</v>
       </c>
       <c r="AS51" s="3"/>
@@ -62293,7 +62450,7 @@
         <v>346857</v>
       </c>
       <c r="L52">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="N52">
         <v>247617</v>
@@ -62338,12 +62495,15 @@
         <v>508</v>
       </c>
       <c r="AC52" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD52" t="s">
         <v>509</v>
       </c>
-      <c r="AD52">
+      <c r="AE52">
         <v>1.1059027986197196E-2</v>
       </c>
-      <c r="AE52">
+      <c r="AF52">
         <v>1.1059027986197196E-2</v>
       </c>
       <c r="AS52" s="3"/>
@@ -62377,7 +62537,7 @@
         <v>346858</v>
       </c>
       <c r="L53">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="N53">
         <v>247618</v>
@@ -62422,12 +62582,15 @@
         <v>510</v>
       </c>
       <c r="AC53" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD53" t="s">
         <v>511</v>
       </c>
-      <c r="AD53">
+      <c r="AE53">
         <v>0.37822985247068724</v>
       </c>
-      <c r="AE53">
+      <c r="AF53">
         <v>0.37822985247068724</v>
       </c>
       <c r="AS53" s="3"/>
@@ -62461,7 +62624,7 @@
         <v>346859</v>
       </c>
       <c r="L54">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="N54">
         <v>247619</v>
@@ -62506,12 +62669,15 @@
         <v>516</v>
       </c>
       <c r="AC54" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD54" t="s">
         <v>517</v>
       </c>
-      <c r="AD54">
+      <c r="AE54">
         <v>1.6249569225057596E-2</v>
       </c>
-      <c r="AE54">
+      <c r="AF54">
         <v>1.6249569225057596E-2</v>
       </c>
       <c r="AS54" s="3"/>
@@ -62545,7 +62711,7 @@
         <v>346860</v>
       </c>
       <c r="L55">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="N55">
         <v>247620</v>
@@ -62590,12 +62756,15 @@
         <v>518</v>
       </c>
       <c r="AC55" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD55" t="s">
         <v>519</v>
       </c>
-      <c r="AD55">
+      <c r="AE55">
         <v>17.70077094043647</v>
       </c>
-      <c r="AE55">
+      <c r="AF55">
         <v>0.11469381587513446</v>
       </c>
       <c r="AS55" s="3"/>
@@ -62629,7 +62798,7 @@
         <v>346861</v>
       </c>
       <c r="L56">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="N56">
         <v>247621</v>
@@ -62674,12 +62843,15 @@
         <v>520</v>
       </c>
       <c r="AC56" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD56" t="s">
         <v>521</v>
       </c>
-      <c r="AD56">
+      <c r="AE56">
         <v>17.76895358187701</v>
       </c>
-      <c r="AE56">
+      <c r="AF56">
         <v>1.1227346079991927E-2</v>
       </c>
       <c r="AS56" s="3"/>
@@ -62713,7 +62885,7 @@
         <v>346862</v>
       </c>
       <c r="L57">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="N57">
         <v>247622</v>
@@ -62758,12 +62930,15 @@
         <v>522</v>
       </c>
       <c r="AC57" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD57" t="s">
         <v>523</v>
       </c>
-      <c r="AD57">
+      <c r="AE57">
         <v>0.14877553091822604</v>
       </c>
-      <c r="AE57">
+      <c r="AF57">
         <v>0.14877553091822604</v>
       </c>
       <c r="AS57" s="3"/>
@@ -62797,7 +62972,7 @@
         <v>346863</v>
       </c>
       <c r="L58">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="N58">
         <v>247623</v>
@@ -62842,12 +63017,15 @@
         <v>530</v>
       </c>
       <c r="AC58" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD58" t="s">
         <v>531</v>
       </c>
-      <c r="AD58">
+      <c r="AE58">
         <v>0.13301979551931126</v>
       </c>
-      <c r="AE58">
+      <c r="AF58">
         <v>0.13301979551931126</v>
       </c>
       <c r="AS58" s="3"/>
@@ -62881,7 +63059,7 @@
         <v>346864</v>
       </c>
       <c r="L59">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="N59">
         <v>247624</v>
@@ -62926,12 +63104,15 @@
         <v>546</v>
       </c>
       <c r="AC59" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD59" t="s">
         <v>547</v>
       </c>
-      <c r="AD59">
+      <c r="AE59">
         <v>1.7540470347180075E-2</v>
       </c>
-      <c r="AE59">
+      <c r="AF59">
         <v>1.7540470347180075E-2</v>
       </c>
       <c r="AS59" s="3"/>
@@ -62965,7 +63146,7 @@
         <v>346865</v>
       </c>
       <c r="L60">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="N60">
         <v>247625</v>
@@ -63010,12 +63191,15 @@
         <v>550</v>
       </c>
       <c r="AC60" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD60" t="s">
         <v>551</v>
       </c>
-      <c r="AD60">
+      <c r="AE60">
         <v>1.2918552550503917E-2</v>
       </c>
-      <c r="AE60">
+      <c r="AF60">
         <v>1.2918552550503917E-2</v>
       </c>
       <c r="AG60" s="1" t="s">
@@ -63058,7 +63242,7 @@
         <v>346866</v>
       </c>
       <c r="L61">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="N61">
         <v>303778</v>
@@ -63103,12 +63287,15 @@
         <v>552</v>
       </c>
       <c r="AC61" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD61" t="s">
         <v>553</v>
       </c>
-      <c r="AD61">
+      <c r="AE61">
         <v>9.8674262095042979E-3</v>
       </c>
-      <c r="AE61">
+      <c r="AF61">
         <v>9.8674262095042979E-3</v>
       </c>
       <c r="AG61">
@@ -63151,7 +63338,7 @@
         <v>346867</v>
       </c>
       <c r="L62">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="N62">
         <v>303785</v>
@@ -63196,12 +63383,15 @@
         <v>554</v>
       </c>
       <c r="AC62" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD62" t="s">
         <v>555</v>
       </c>
-      <c r="AD62">
+      <c r="AE62">
         <v>1.3133868432408003E-2</v>
       </c>
-      <c r="AE62">
+      <c r="AF62">
         <v>1.3133868432408003E-2</v>
       </c>
       <c r="AS62" s="3"/>
@@ -63235,7 +63425,7 @@
         <v>346868</v>
       </c>
       <c r="L63">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="N63">
         <v>303825</v>
@@ -63280,12 +63470,15 @@
         <v>560</v>
       </c>
       <c r="AC63" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD63" t="s">
         <v>561</v>
       </c>
-      <c r="AD63">
+      <c r="AE63">
         <v>0.14024859428885511</v>
       </c>
-      <c r="AE63">
+      <c r="AF63">
         <v>0.14024859428885511</v>
       </c>
       <c r="AS63" s="3"/>
@@ -63319,7 +63512,7 @@
         <v>346869</v>
       </c>
       <c r="L64">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="N64">
         <v>303834</v>
@@ -63364,12 +63557,15 @@
         <v>562</v>
       </c>
       <c r="AC64" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD64" t="s">
         <v>563</v>
       </c>
-      <c r="AD64">
+      <c r="AE64">
         <v>0.19730456786400052</v>
       </c>
-      <c r="AE64">
+      <c r="AF64">
         <v>0.19730456786400052</v>
       </c>
       <c r="AS64" s="3"/>
@@ -63403,7 +63599,7 @@
         <v>347110</v>
       </c>
       <c r="L65">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="N65">
         <v>303840</v>
@@ -63448,12 +63644,15 @@
         <v>580</v>
       </c>
       <c r="AC65" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD65" t="s">
         <v>581</v>
       </c>
-      <c r="AD65">
+      <c r="AE65">
         <v>8.0655316005913864E-3</v>
       </c>
-      <c r="AE65">
+      <c r="AF65">
         <v>8.0655316005913864E-3</v>
       </c>
       <c r="AS65" s="3"/>
@@ -63487,7 +63686,7 @@
         <v>347128</v>
       </c>
       <c r="L66">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c r="N66">
         <v>303858</v>
@@ -63532,12 +63731,15 @@
         <v>582</v>
       </c>
       <c r="AC66" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD66" t="s">
         <v>583</v>
       </c>
-      <c r="AD66">
+      <c r="AE66">
         <v>1.883057354409947E-2</v>
       </c>
-      <c r="AE66">
+      <c r="AF66">
         <v>1.883057354409947E-2</v>
       </c>
       <c r="AS66" s="3"/>
@@ -63571,7 +63773,7 @@
         <v>347140</v>
       </c>
       <c r="L67">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="N67">
         <v>303863</v>
@@ -63616,12 +63818,15 @@
         <v>584</v>
       </c>
       <c r="AC67" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD67" t="s">
         <v>585</v>
       </c>
-      <c r="AD67">
+      <c r="AE67">
         <v>0.13142088190237619</v>
       </c>
-      <c r="AE67">
+      <c r="AF67">
         <v>0.13142088190237619</v>
       </c>
       <c r="AS67" s="3"/>
@@ -63655,7 +63860,7 @@
         <v>347141</v>
       </c>
       <c r="L68">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="N68">
         <v>303889</v>
@@ -63700,12 +63905,15 @@
         <v>586</v>
       </c>
       <c r="AC68" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD68" t="s">
         <v>587</v>
       </c>
-      <c r="AD68">
+      <c r="AE68">
         <v>1.4917094221075252E-2</v>
       </c>
-      <c r="AE68">
+      <c r="AF68">
         <v>1.4917094221075252E-2</v>
       </c>
       <c r="AS68" s="3"/>
@@ -63739,7 +63947,7 @@
         <v>347142</v>
       </c>
       <c r="L69">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="N69">
         <v>303897</v>
@@ -63784,12 +63992,15 @@
         <v>588</v>
       </c>
       <c r="AC69" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD69" t="s">
         <v>589</v>
       </c>
-      <c r="AD69">
+      <c r="AE69">
         <v>0.16025655212813808</v>
       </c>
-      <c r="AE69">
+      <c r="AF69">
         <v>0.16025655212813808</v>
       </c>
       <c r="AS69" s="3"/>
@@ -63823,7 +64034,7 @@
         <v>347143</v>
       </c>
       <c r="L70">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="N70">
         <v>303910</v>
@@ -63868,12 +64079,15 @@
         <v>590</v>
       </c>
       <c r="AC70" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD70" t="s">
         <v>591</v>
       </c>
-      <c r="AD70">
+      <c r="AE70">
         <v>1.5403028922896831E-2</v>
       </c>
-      <c r="AE70">
+      <c r="AF70">
         <v>1.5403028922896831E-2</v>
       </c>
       <c r="AS70" s="3"/>
@@ -63907,7 +64121,7 @@
         <v>347144</v>
       </c>
       <c r="L71">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c r="N71">
         <v>303923</v>
@@ -63952,12 +64166,15 @@
         <v>596</v>
       </c>
       <c r="AC71" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD71" t="s">
         <v>597</v>
       </c>
-      <c r="AD71">
+      <c r="AE71">
         <v>9.930005035246884E-3</v>
       </c>
-      <c r="AE71">
+      <c r="AF71">
         <v>9.930005035246884E-3</v>
       </c>
       <c r="AS71" s="3"/>
@@ -63991,7 +64208,7 @@
         <v>347145</v>
       </c>
       <c r="L72">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="N72">
         <v>303967</v>
@@ -64036,12 +64253,15 @@
         <v>610</v>
       </c>
       <c r="AC72" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD72" t="s">
         <v>611</v>
       </c>
-      <c r="AD72">
+      <c r="AE72">
         <v>0.16224215543440859</v>
       </c>
-      <c r="AE72">
+      <c r="AF72">
         <v>0.16224215543440859</v>
       </c>
       <c r="AS72" s="3"/>
@@ -64075,7 +64295,7 @@
         <v>347146</v>
       </c>
       <c r="L73">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="N73">
         <v>303977</v>
@@ -64120,12 +64340,15 @@
         <v>616</v>
       </c>
       <c r="AC73" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD73" t="s">
         <v>617</v>
       </c>
-      <c r="AD73">
+      <c r="AE73">
         <v>0.14133958999515905</v>
       </c>
-      <c r="AE73">
+      <c r="AF73">
         <v>0.14133958999515905</v>
       </c>
       <c r="AS73" s="3"/>
@@ -64159,7 +64382,7 @@
         <v>347147</v>
       </c>
       <c r="L74">
-        <v>56</v>
+        <v>213</v>
       </c>
       <c r="N74">
         <v>303978</v>
@@ -64204,12 +64427,15 @@
         <v>618</v>
       </c>
       <c r="AC74" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD74" t="s">
         <v>619</v>
       </c>
-      <c r="AD74">
+      <c r="AE74">
         <v>2.0483163818118901E-2</v>
       </c>
-      <c r="AE74">
+      <c r="AF74">
         <v>2.0483163818118901E-2</v>
       </c>
       <c r="AS74" s="3"/>
@@ -64243,7 +64469,7 @@
         <v>347148</v>
       </c>
       <c r="L75">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="N75">
         <v>303979</v>
@@ -64288,12 +64514,15 @@
         <v>620</v>
       </c>
       <c r="AC75" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD75" t="s">
         <v>621</v>
       </c>
-      <c r="AD75">
+      <c r="AE75">
         <v>9.4979392501743712E-2</v>
       </c>
-      <c r="AE75">
+      <c r="AF75">
         <v>9.4979392501743712E-2</v>
       </c>
       <c r="AS75" s="3"/>
@@ -64327,7 +64556,7 @@
         <v>347149</v>
       </c>
       <c r="L76">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="N76">
         <v>303980</v>
@@ -64372,12 +64601,15 @@
         <v>624</v>
       </c>
       <c r="AC76" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD76" t="s">
         <v>625</v>
       </c>
-      <c r="AD76">
+      <c r="AE76">
         <v>0.16848478655356633</v>
       </c>
-      <c r="AE76">
+      <c r="AF76">
         <v>0.16848478655356633</v>
       </c>
       <c r="AS76" s="3"/>
@@ -64411,7 +64643,7 @@
         <v>347150</v>
       </c>
       <c r="L77">
-        <v>56</v>
+        <v>216</v>
       </c>
       <c r="N77">
         <v>303981</v>
@@ -64456,12 +64688,15 @@
         <v>626</v>
       </c>
       <c r="AC77" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD77" t="s">
         <v>627</v>
       </c>
-      <c r="AD77">
+      <c r="AE77">
         <v>1.7280141781825267E-2</v>
       </c>
-      <c r="AE77">
+      <c r="AF77">
         <v>1.7280141781825267E-2</v>
       </c>
       <c r="AS77" s="3"/>
@@ -64495,7 +64730,7 @@
         <v>347151</v>
       </c>
       <c r="L78">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="N78">
         <v>303982</v>
@@ -64540,12 +64775,15 @@
         <v>638</v>
       </c>
       <c r="AC78" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD78" t="s">
         <v>639</v>
       </c>
-      <c r="AD78">
+      <c r="AE78">
         <v>1.7799115146555439E-2</v>
       </c>
-      <c r="AE78">
+      <c r="AF78">
         <v>1.7799115146555439E-2</v>
       </c>
       <c r="AS78" s="3"/>
@@ -64579,7 +64817,7 @@
         <v>347152</v>
       </c>
       <c r="L79">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="N79">
         <v>303983</v>
@@ -64624,12 +64862,15 @@
         <v>642</v>
       </c>
       <c r="AC79" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD79" t="s">
         <v>643</v>
       </c>
-      <c r="AD79">
+      <c r="AE79">
         <v>1.8396700791189782E-2</v>
       </c>
-      <c r="AE79">
+      <c r="AF79">
         <v>1.8396700791189782E-2</v>
       </c>
       <c r="AS79" s="3"/>
@@ -64663,7 +64904,7 @@
         <v>347153</v>
       </c>
       <c r="L80">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="N80">
         <v>303984</v>
@@ -64708,12 +64949,15 @@
         <v>646</v>
       </c>
       <c r="AC80" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD80" t="s">
         <v>647</v>
       </c>
-      <c r="AD80">
+      <c r="AE80">
         <v>1.9020436377753861E-2</v>
       </c>
-      <c r="AE80">
+      <c r="AF80">
         <v>1.9020436377753861E-2</v>
       </c>
       <c r="AS80" s="3"/>
@@ -64747,7 +64991,7 @@
         <v>347170</v>
       </c>
       <c r="L81">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="N81">
         <v>338160</v>
@@ -64792,12 +65036,15 @@
         <v>648</v>
       </c>
       <c r="AC81" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD81" t="s">
         <v>649</v>
       </c>
-      <c r="AD81">
+      <c r="AE81">
         <v>1.8158570979008071E-2</v>
       </c>
-      <c r="AE81">
+      <c r="AF81">
         <v>1.8158570979008071E-2</v>
       </c>
       <c r="AS81" s="3"/>
@@ -64831,7 +65078,7 @@
         <v>347197</v>
       </c>
       <c r="L82">
-        <v>56</v>
+        <v>221</v>
       </c>
       <c r="N82">
         <v>338170</v>
@@ -64876,12 +65123,15 @@
         <v>650</v>
       </c>
       <c r="AC82" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD82" t="s">
         <v>651</v>
       </c>
-      <c r="AD82">
+      <c r="AE82">
         <v>2.0802329196510167E-2</v>
       </c>
-      <c r="AE82">
+      <c r="AF82">
         <v>2.0802329196510167E-2</v>
       </c>
       <c r="AS82" s="3"/>
@@ -64915,7 +65165,7 @@
         <v>347215</v>
       </c>
       <c r="L83">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="N83">
         <v>338181</v>
@@ -64960,12 +65210,15 @@
         <v>656</v>
       </c>
       <c r="AC83" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD83" t="s">
         <v>657</v>
       </c>
-      <c r="AD83">
+      <c r="AE83">
         <v>0.51847049530325551</v>
       </c>
-      <c r="AE83">
+      <c r="AF83">
         <v>0.5184704953032554</v>
       </c>
       <c r="AS83" s="3"/>
@@ -64999,7 +65252,7 @@
         <v>347233</v>
       </c>
       <c r="L84">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="N84">
         <v>338191</v>
@@ -65020,7 +65273,7 @@
         <v>346863</v>
       </c>
       <c r="U84">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V84">
         <v>247625</v>
@@ -65044,12 +65297,15 @@
         <v>351</v>
       </c>
       <c r="AC84" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD84" t="s">
         <v>352</v>
       </c>
-      <c r="AD84">
+      <c r="AE84">
         <v>0</v>
       </c>
-      <c r="AE84">
+      <c r="AF84">
         <v>0</v>
       </c>
       <c r="AS84" s="3"/>
@@ -65083,7 +65339,7 @@
         <v>348020</v>
       </c>
       <c r="L85">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="N85">
         <v>338203</v>
@@ -65128,12 +65384,15 @@
         <v>660</v>
       </c>
       <c r="AC85" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD85" t="s">
         <v>661</v>
       </c>
-      <c r="AD85">
+      <c r="AE85">
         <v>2.2271219095506115E-2</v>
       </c>
-      <c r="AE85">
+      <c r="AF85">
         <v>2.2271219095506115E-2</v>
       </c>
       <c r="AS85" s="3"/>
